--- a/Lab2/Resultados Simulacion.xlsx
+++ b/Lab2/Resultados Simulacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUIS\Desktop\Universidad\ElectroP\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64526ACF-1C1C-4E03-9FF3-962C01A4F4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8E76BC-C2A8-45CC-98F7-19B283A3753A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,19 +128,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,15 +162,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>572392</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19252</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>105667</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -194,7 +193,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8848725" y="666750"/>
+          <a:off x="8991600" y="266700"/>
           <a:ext cx="6392167" cy="1448002"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -473,7 +472,7 @@
   <dimension ref="C4:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,99 +485,111 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>3.18</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>88.49</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>-25.86</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>15.89</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>44.47</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="D7" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>76.36</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>16.32</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="J11" s="7"/>
+      <c r="J11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Lab2/Resultados Simulacion.xlsx
+++ b/Lab2/Resultados Simulacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUIS\Desktop\Universidad\ElectroP\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8E76BC-C2A8-45CC-98F7-19B283A3753A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B08A25-45D6-41AB-AA72-2718CE7D270E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34785" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>sim</t>
   </si>
@@ -58,13 +58,19 @@
   </si>
   <si>
     <t>Cout=47nF+220</t>
+  </si>
+  <si>
+    <t>sim1</t>
+  </si>
+  <si>
+    <t>sim2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +82,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -140,6 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,8 +180,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>105667</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>515242</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>202</xdr:rowOff>
     </xdr:to>
@@ -195,6 +208,50 @@
         <a:xfrm>
           <a:off x="8991600" y="266700"/>
           <a:ext cx="6392167" cy="1448002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>162614</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C4985CF-2F0C-7E64-F3CF-6F5D23B60FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11115675" y="2924175"/>
+          <a:ext cx="4934639" cy="1514686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -469,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:O11"/>
+  <dimension ref="C4:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,8 +537,9 @@
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
@@ -591,14 +649,173 @@
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="J11" s="4"/>
     </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.18</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H18" s="3">
+        <v>88.49</v>
+      </c>
+      <c r="I18" s="3">
+        <v>71.697000000000003</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-25.86</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-1.32</v>
+      </c>
+      <c r="L18" s="3">
+        <v>15.89</v>
+      </c>
+      <c r="M18" s="3">
+        <v>16.268000000000001</v>
+      </c>
+      <c r="N18" s="3">
+        <v>44.47</v>
+      </c>
+      <c r="O18" s="3">
+        <v>16.263999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H19" s="1">
+        <v>76.36</v>
+      </c>
+      <c r="I19" s="1">
+        <v>60.9</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K19" s="1">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="L19" s="1">
+        <v>16.32</v>
+      </c>
+      <c r="M19" s="1">
+        <v>15.513</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="12">
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
